--- a/model.xlsx
+++ b/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JS_M\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATASTOR\Programming\SOURCETREE\Mused_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -50,9 +51,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>어쿠스틱</t>
-  </si>
-  <si>
     <t>세트</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -152,10 +150,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>앰프</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -168,10 +162,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>클래식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>우쿨렐레</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -204,10 +194,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>가입시 실명인증</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>스크랩목록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -224,14 +210,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>가입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -240,71 +218,111 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>카테고리 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징(체크박스)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래방식(직거래, 택배)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명(텍스트박스)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 정보(id)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 정보(전화번호)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 저장 내용(가입 이후)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력해줘야 하는 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 입력되는 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용하려면 로그인 필요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 쓴 글 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용약관</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보취급방침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔드아웃(Boolean)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 가입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>api 사용 시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 보기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약 보기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>게시글 정보</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>특징(체크박스)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래방식(직거래, 택배)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세설명(텍스트박스)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 정보(id)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>summary</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 정보(전화번호)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 저장 내용(가입 이후)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력해줘야 하는 것</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동으로 입력되는 것</t>
+    <t>사진 (대표 사진)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -312,31 +330,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이용하려면 로그인 필요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 쓴 글 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id 클릭 시 모아보기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용약관</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보취급방침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔드아웃(Boolean)</t>
+    <t>베이스기타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쿠스틱기타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식기타</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -394,14 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,8 +404,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +438,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -490,14 +497,14 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,25 +520,28 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="5" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="6" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="6" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="5" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="경고문" xfId="5" builtinId="11"/>
+    <cellStyle name="강조색2" xfId="6" builtinId="33"/>
     <cellStyle name="계산" xfId="4" builtinId="22"/>
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
-    <cellStyle name="요약" xfId="6" builtinId="25"/>
+    <cellStyle name="요약" xfId="5" builtinId="25"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -811,17 +821,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" customWidth="1"/>
-    <col min="3" max="8" width="14.69921875" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" customWidth="1"/>
     <col min="9" max="9" width="2.59765625" customWidth="1"/>
     <col min="10" max="10" width="10.59765625" customWidth="1"/>
     <col min="11" max="11" width="3.59765625" customWidth="1"/>
@@ -829,23 +844,23 @@
     <col min="13" max="13" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -859,357 +874,372 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="4" t="s">
-        <v>78</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.796875" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="E15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/model.xlsx
+++ b/model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9324"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9324" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -174,35 +174,119 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역(거래 장소)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징(체크박스)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래방식(직거래, 택배)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명(텍스트박스)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 정보(id)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 정보(전화번호)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 저장 내용(가입 이후)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력해줘야 하는 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 입력되는 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용하려면 로그인 필요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용약관</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보취급방침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔드아웃(Boolean)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 정보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인시 이용 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이스기타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쿠스틱기타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식기타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>사용자 정보</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역(거래 장소)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크랩목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리설정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <t>db id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -210,11 +294,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>email(id)</t>
+    <t>db id(사용자)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크랩시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크랩 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>db id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -222,31 +326,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>브랜드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>특징(체크박스)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래방식(직거래, 택배)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세설명(텍스트박스)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진</t>
+    <t>db id(게시글)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 입력</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -254,91 +338,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>가입시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 정보(id)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 정보(전화번호)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 저장 내용(가입 이후)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력해줘야 하는 것</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동으로 입력되는 것</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용하려면 로그인 필요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 쓴 글 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용약관</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보취급방침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔드아웃(Boolean)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>직접 가입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>api 사용 시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 보기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>요약 보기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 (대표 사진)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인시 이용 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이스기타</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>어쿠스틱기타</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래식기타</t>
+    <t>추가 사항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(로그인 필요)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +416,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,8 +474,14 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -480,8 +515,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="double">
+        <color theme="4"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="double">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="double">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,8 +712,11 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,23 +732,75 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="5" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="60% - 강조색2" xfId="7" builtinId="36"/>
     <cellStyle name="강조색2" xfId="6" builtinId="33"/>
     <cellStyle name="계산" xfId="4" builtinId="22"/>
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
@@ -823,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -845,9 +1109,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -883,10 +1154,10 @@
         <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -982,7 +1253,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -1026,6 +1297,9 @@
       <c r="H9" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1034,209 +1308,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:L20"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" customWidth="1"/>
     <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.796875" customWidth="1"/>
-    <col min="6" max="6" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+    <row r="1" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C3" s="1" t="s">
+      <c r="D2" s="17"/>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="I3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="10"/>
+      <c r="B4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="I4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="I5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="I10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="D13" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="2" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="E15" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
